--- a/pred_ohlcv/54_21/2020-01-11 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 VALOR ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-36075.04884313227</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-36072.64884313227</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-35947.51634313227</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-64530.56004313227</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-64527.56004313227</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-101729.3572431323</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-101725.3572431323</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-101725.3572431323</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-101719.1093431323</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-102819.1093431323</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-102819.1093431323</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-102819.1093431323</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-97397.40844425588</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-98310.40844425588</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-98310.40844425588</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-98310.40844425588</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-98310.40844425588</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-98310.40844425588</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-98310.40844425588</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-99310.40844425588</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-105848.6038442559</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-105683.5130431323</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-98347.29344313228</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-99847.29344313228</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-99974.53274313228</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-101474.5327431323</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-99036.42614313228</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-108987.7481431323</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-109352.7481431323</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-109350.4481431323</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-109450.4481431323</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-109450.4481431323</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-109468.4481431323</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-109468.4481431323</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-109468.4481431323</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-109468.4481431323</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-109468.4481431323</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-109468.4481431323</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-109466.1481431323</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-109530.6787431323</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-110777.1151431323</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-115617.9052431323</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-115617.9052431323</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-115529.9052431323</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-115529.9052431323</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-115525.9052431323</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-106805.4784783215</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-112230.1784783215</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-112230.1784783215</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-112230.1784783215</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-112280.1784783215</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-111252.5884783215</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-108833.9488783215</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-11 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 VALOR ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-36075.04884313227</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-36072.64884313227</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-35947.51634313227</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-64530.56004313227</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-64527.56004313227</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-101729.3572431323</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-101725.3572431323</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-101725.3572431323</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-101719.1093431323</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-102819.1093431323</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-102819.1093431323</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-102819.1093431323</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-97397.40844425588</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-98310.40844425588</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-98310.40844425588</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-98310.40844425588</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-98310.40844425588</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-98310.40844425588</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-98310.40844425588</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-99310.40844425588</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-105848.6038442559</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-105683.5130431323</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-98347.29344313228</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-99847.29344313228</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-99974.53274313228</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-101474.5327431323</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-99036.42614313228</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-108987.7481431323</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-109352.7481431323</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-109350.4481431323</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-109450.4481431323</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-109450.4481431323</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-109468.4481431323</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-109468.4481431323</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-109468.4481431323</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-109468.4481431323</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-109468.4481431323</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-109468.4481431323</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-109466.1481431323</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-109530.6787431323</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-110777.1151431323</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-115617.9052431323</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-115617.9052431323</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-115529.9052431323</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-115529.9052431323</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-115525.9052431323</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-106805.4784783215</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-112230.1784783215</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-112230.1784783215</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-112230.1784783215</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-112280.1784783215</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-111252.5884783215</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-108833.9488783215</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
